--- a/code2021/railway/测试文件/dk7-DK50.xlsx
+++ b/code2021/railway/测试文件/dk7-DK50.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C14207-6CAA-4A5E-90F9-018471307D12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8771B-AB89-4DC2-BA5E-78AC1BFB7B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥数据" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="长短链表" sheetId="3" r:id="rId3"/>
     <sheet name="线间距表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -704,6 +704,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,9 +744,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,27 +1107,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="31">
+      <c r="A1" s="32">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8">
         <v>7900</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2">
         <v>50500</v>
       </c>
@@ -1151,16 +1151,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1203,23 +1203,23 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
@@ -1520,8 +1520,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1595,7 +1595,7 @@
       <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2268,8 +2268,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2443,6 +2443,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
